--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>4.03608225125</v>
+        <v>0.2812157768662222</v>
       </c>
       <c r="R2">
-        <v>36.32474026125</v>
+        <v>2.530941991796</v>
       </c>
       <c r="S2">
-        <v>0.1664071844004521</v>
+        <v>0.009991936326560338</v>
       </c>
       <c r="T2">
-        <v>0.1664071844004521</v>
+        <v>0.009991936326560341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
-        <v>11.36359226625</v>
+        <v>0.758071751906</v>
       </c>
       <c r="R3">
-        <v>102.27233039625</v>
+        <v>6.822645767154</v>
       </c>
       <c r="S3">
-        <v>0.4685195384994361</v>
+        <v>0.02693520527339449</v>
       </c>
       <c r="T3">
-        <v>0.4685195384994361</v>
+        <v>0.0269352052733945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H4">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I4">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J4">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>4.416613395833333</v>
+        <v>0.4654656821297777</v>
       </c>
       <c r="R4">
-        <v>39.7495205625</v>
+        <v>4.189191139168</v>
       </c>
       <c r="S4">
-        <v>0.1820964375932438</v>
+        <v>0.01653855807760105</v>
       </c>
       <c r="T4">
-        <v>0.1820964375932438</v>
+        <v>0.01653855807760105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H5">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I5">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J5">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>2.371950032083333</v>
+        <v>0.1341614536613333</v>
       </c>
       <c r="R5">
-        <v>21.34755028875</v>
+        <v>1.207453082952</v>
       </c>
       <c r="S5">
-        <v>0.09779521372620825</v>
+        <v>0.004766918547036305</v>
       </c>
       <c r="T5">
-        <v>0.09779521372620828</v>
+        <v>0.004766918547036307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H6">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N6">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q6">
-        <v>0.3758123553643333</v>
+        <v>4.215460369166666</v>
       </c>
       <c r="R6">
-        <v>3.382311198279</v>
+        <v>37.93914332250001</v>
       </c>
       <c r="S6">
-        <v>0.01549469808245669</v>
+        <v>0.1497804001796427</v>
       </c>
       <c r="T6">
-        <v>0.01549469808245669</v>
+        <v>0.1497804001796428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H7">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q7">
-        <v>1.058099936803</v>
+        <v>11.36359226625</v>
       </c>
       <c r="R7">
-        <v>9.522899431227001</v>
+        <v>102.27233039625</v>
       </c>
       <c r="S7">
-        <v>0.04362533276995331</v>
+        <v>0.403762163100038</v>
       </c>
       <c r="T7">
-        <v>0.04362533276995331</v>
+        <v>0.4037621631000381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H8">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N8">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q8">
-        <v>0.4112448111055556</v>
+        <v>6.977389953333334</v>
       </c>
       <c r="R8">
-        <v>3.70120329995</v>
+        <v>62.79650958000001</v>
       </c>
       <c r="S8">
-        <v>0.01695557395892435</v>
+        <v>0.2479150953627115</v>
       </c>
       <c r="T8">
-        <v>0.01695557395892435</v>
+        <v>0.2479150953627116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H9">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N9">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O9">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P9">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q9">
-        <v>0.2208597528178889</v>
+        <v>2.011097305</v>
       </c>
       <c r="R9">
-        <v>1.987737775361</v>
+        <v>18.099875745</v>
       </c>
       <c r="S9">
-        <v>0.009106020969325434</v>
+        <v>0.07145671712308097</v>
       </c>
       <c r="T9">
-        <v>0.009106020969325437</v>
+        <v>0.07145671712308098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.122161</v>
+      </c>
+      <c r="I10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.165540666666667</v>
+      </c>
+      <c r="N10">
+        <v>24.496622</v>
+      </c>
+      <c r="O10">
+        <v>0.1715865889461355</v>
+      </c>
+      <c r="P10">
+        <v>0.1715865889461355</v>
+      </c>
+      <c r="Q10">
+        <v>0.3325035377935556</v>
+      </c>
+      <c r="R10">
+        <v>2.992531840142</v>
+      </c>
+      <c r="S10">
+        <v>0.01181425243993242</v>
+      </c>
+      <c r="T10">
+        <v>0.01181425243993242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.122161</v>
+      </c>
+      <c r="I11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.011801</v>
+      </c>
+      <c r="N11">
+        <v>66.035403</v>
+      </c>
+      <c r="O11">
+        <v>0.4625449807101323</v>
+      </c>
+      <c r="P11">
+        <v>0.4625449807101323</v>
+      </c>
+      <c r="Q11">
+        <v>0.8963278739870002</v>
+      </c>
+      <c r="R11">
+        <v>8.066950865883001</v>
+      </c>
+      <c r="S11">
+        <v>0.03184761233669976</v>
+      </c>
+      <c r="T11">
+        <v>0.03184761233669976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.122161</v>
+      </c>
+      <c r="I12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.51552533333333</v>
+      </c>
+      <c r="N12">
+        <v>40.546576</v>
+      </c>
+      <c r="O12">
+        <v>0.2840084918355372</v>
+      </c>
+      <c r="P12">
+        <v>0.2840084918355373</v>
+      </c>
+      <c r="Q12">
+        <v>0.5503566967484446</v>
+      </c>
+      <c r="R12">
+        <v>4.953210270736</v>
+      </c>
+      <c r="S12">
+        <v>0.01955483839522466</v>
+      </c>
+      <c r="T12">
+        <v>0.01955483839522467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.122161</v>
+      </c>
+      <c r="I13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.895588</v>
+      </c>
+      <c r="N13">
+        <v>11.686764</v>
+      </c>
+      <c r="O13">
+        <v>0.08185993850819488</v>
+      </c>
+      <c r="P13">
+        <v>0.0818599385081949</v>
+      </c>
+      <c r="Q13">
+        <v>0.1586296418893333</v>
+      </c>
+      <c r="R13">
+        <v>1.427666777004</v>
+      </c>
+      <c r="S13">
+        <v>0.005636302838077607</v>
+      </c>
+      <c r="T13">
+        <v>0.005636302838077607</v>
       </c>
     </row>
   </sheetData>
